--- a/src/main/resources/demo/fill/PP summary format.xlsx
+++ b/src/main/resources/demo/fill/PP summary format.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNG1SGH\Desktop\wangyang\ppweb\PPreportwebsite\ppback\src\main\resources\demo\fill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35936B3-C574-493A-B236-69BB298464F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC2F5CC-470B-444E-9850-24944D98E64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DAD8571F-ADB2-425A-8001-CEAE6AD67396}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DAD8571F-ADB2-425A-8001-CEAE6AD67396}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary1{YearMinus1} and {Year}" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary1 &amp;Year and &amp;(Year+1)" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary1 {Year} and {YearPlus1}" sheetId="2" r:id="rId2"/>
     <sheet name="Summary2 &amp;Year and &amp;(Year-1)" sheetId="3" r:id="rId3"/>
     <sheet name="Summary2 &amp;(Year+1) and &amp;Year" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -22,51 +22,51 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$A$1:$AJ$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$A$1:$AJ$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$A$3:$AJ$8</definedName>
-    <definedName name="Z_0E08B549_C358_45AD_AD6B_4BC95814DFFB_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$A$1:$AJ$8</definedName>
+    <definedName name="Z_0E08B549_C358_45AD_AD6B_4BC95814DFFB_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$A$1:$AJ$8</definedName>
     <definedName name="Z_0E08B549_C358_45AD_AD6B_4BC95814DFFB_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$A$1:$AJ$8</definedName>
-    <definedName name="Z_14DDEE22_FD4B_48D7_A112_F879C532D84B_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$B$3:$AI$8</definedName>
+    <definedName name="Z_14DDEE22_FD4B_48D7_A112_F879C532D84B_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$B$3:$AI$8</definedName>
     <definedName name="Z_14DDEE22_FD4B_48D7_A112_F879C532D84B_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$B$3:$AI$8</definedName>
-    <definedName name="Z_2B13C5DA_09F2_4E5C_97EA_5B9C7522A1DE_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$B$3:$AI$8</definedName>
+    <definedName name="Z_2B13C5DA_09F2_4E5C_97EA_5B9C7522A1DE_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$B$3:$AI$8</definedName>
     <definedName name="Z_2B13C5DA_09F2_4E5C_97EA_5B9C7522A1DE_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$B$3:$AI$8</definedName>
-    <definedName name="Z_2B7E718B_F06A_4710_88DE_EEA1947E4BA4_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$A$1:$AJ$8</definedName>
+    <definedName name="Z_2B7E718B_F06A_4710_88DE_EEA1947E4BA4_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$A$1:$AJ$8</definedName>
     <definedName name="Z_2B7E718B_F06A_4710_88DE_EEA1947E4BA4_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$A$1:$AJ$8</definedName>
-    <definedName name="Z_3D10421E_3190_43AD_9575_5B279A9D4F59_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$B$3:$AI$8</definedName>
+    <definedName name="Z_3D10421E_3190_43AD_9575_5B279A9D4F59_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$B$3:$AI$8</definedName>
     <definedName name="Z_3D10421E_3190_43AD_9575_5B279A9D4F59_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$B$3:$AI$8</definedName>
-    <definedName name="Z_52865A1E_19E0_4604_99BB_3CFB2CA6AC29_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$B$3:$AI$8</definedName>
+    <definedName name="Z_52865A1E_19E0_4604_99BB_3CFB2CA6AC29_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$B$3:$AI$8</definedName>
     <definedName name="Z_52865A1E_19E0_4604_99BB_3CFB2CA6AC29_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$B$3:$AI$8</definedName>
-    <definedName name="Z_583F95E2_C525_4F05_B663_4C4EBBC8A952_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$B$3:$AI$8</definedName>
+    <definedName name="Z_583F95E2_C525_4F05_B663_4C4EBBC8A952_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$B$3:$AI$8</definedName>
     <definedName name="Z_583F95E2_C525_4F05_B663_4C4EBBC8A952_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$B$3:$AI$8</definedName>
-    <definedName name="Z_594C5FC1_44DE_4F1A_A5F5_0B66E4C3A35B_.wvu.Cols" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$A:$A</definedName>
+    <definedName name="Z_594C5FC1_44DE_4F1A_A5F5_0B66E4C3A35B_.wvu.Cols" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$A:$A</definedName>
     <definedName name="Z_594C5FC1_44DE_4F1A_A5F5_0B66E4C3A35B_.wvu.Cols" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$A:$A</definedName>
-    <definedName name="Z_594C5FC1_44DE_4F1A_A5F5_0B66E4C3A35B_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$A$1:$AJ$8</definedName>
+    <definedName name="Z_594C5FC1_44DE_4F1A_A5F5_0B66E4C3A35B_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$A$1:$AJ$8</definedName>
     <definedName name="Z_594C5FC1_44DE_4F1A_A5F5_0B66E4C3A35B_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$A$1:$AJ$8</definedName>
-    <definedName name="Z_594C5FC1_44DE_4F1A_A5F5_0B66E4C3A35B_.wvu.Rows" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!,'Summary1 &amp;Year and &amp;(Year+1)'!#REF!</definedName>
+    <definedName name="Z_594C5FC1_44DE_4F1A_A5F5_0B66E4C3A35B_.wvu.Rows" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!,'Summary1 {Year} and {YearPlus1}'!#REF!</definedName>
     <definedName name="Z_594C5FC1_44DE_4F1A_A5F5_0B66E4C3A35B_.wvu.Rows" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!,'Summary1{YearMinus1} and {Year}'!#REF!</definedName>
-    <definedName name="Z_5C8FDAF5_015F_4F93_A492_53C23407B774_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$B$3:$AI$8</definedName>
+    <definedName name="Z_5C8FDAF5_015F_4F93_A492_53C23407B774_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$B$3:$AI$8</definedName>
     <definedName name="Z_5C8FDAF5_015F_4F93_A492_53C23407B774_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$B$3:$AI$8</definedName>
-    <definedName name="Z_616526A1_D375_4154_BFDD_8297C46BD8D3_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$A$1:$AJ$8</definedName>
+    <definedName name="Z_616526A1_D375_4154_BFDD_8297C46BD8D3_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$A$1:$AJ$8</definedName>
     <definedName name="Z_616526A1_D375_4154_BFDD_8297C46BD8D3_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$A$1:$AJ$8</definedName>
-    <definedName name="Z_61AF8073_9284_4E55_9241_7E7B93B77B2E_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$A$1:$AJ$8</definedName>
+    <definedName name="Z_61AF8073_9284_4E55_9241_7E7B93B77B2E_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$A$1:$AJ$8</definedName>
     <definedName name="Z_61AF8073_9284_4E55_9241_7E7B93B77B2E_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$A$1:$AJ$8</definedName>
-    <definedName name="Z_828C05B6_E8B5_4E2D_B396_55DCB300A862_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$B$3:$AI$8</definedName>
+    <definedName name="Z_828C05B6_E8B5_4E2D_B396_55DCB300A862_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$B$3:$AI$8</definedName>
     <definedName name="Z_828C05B6_E8B5_4E2D_B396_55DCB300A862_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$B$3:$AI$8</definedName>
-    <definedName name="Z_AB4AA731_64E5_4F59_A50C_A83078C97F77_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$B$3:$AI$8</definedName>
+    <definedName name="Z_AB4AA731_64E5_4F59_A50C_A83078C97F77_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$B$3:$AI$8</definedName>
     <definedName name="Z_AB4AA731_64E5_4F59_A50C_A83078C97F77_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$B$3:$AI$8</definedName>
-    <definedName name="Z_BABE578C_C8C3_40C2_9996_97293B86111C_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$A$1:$AJ$8</definedName>
+    <definedName name="Z_BABE578C_C8C3_40C2_9996_97293B86111C_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$A$1:$AJ$8</definedName>
     <definedName name="Z_BABE578C_C8C3_40C2_9996_97293B86111C_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$A$1:$AJ$8</definedName>
-    <definedName name="Z_BAD03AEF_D7EE_4F81_8E42_4B544BF3EB82_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$B$3:$AI$8</definedName>
+    <definedName name="Z_BAD03AEF_D7EE_4F81_8E42_4B544BF3EB82_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$B$3:$AI$8</definedName>
     <definedName name="Z_BAD03AEF_D7EE_4F81_8E42_4B544BF3EB82_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$B$3:$AI$8</definedName>
-    <definedName name="Z_C07316CF_9A28_4C4C_959E_3BFB97ADF34E_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$A$1:$AJ$8</definedName>
+    <definedName name="Z_C07316CF_9A28_4C4C_959E_3BFB97ADF34E_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$A$1:$AJ$8</definedName>
     <definedName name="Z_C07316CF_9A28_4C4C_959E_3BFB97ADF34E_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$A$1:$AJ$8</definedName>
-    <definedName name="Z_D8AF060E_5112_4684_92B1_9CC2528CAF96_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$A$1:$AJ$8</definedName>
+    <definedName name="Z_D8AF060E_5112_4684_92B1_9CC2528CAF96_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$A$1:$AJ$8</definedName>
     <definedName name="Z_D8AF060E_5112_4684_92B1_9CC2528CAF96_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$A$1:$AJ$8</definedName>
-    <definedName name="Z_DB171107_D76D_4C3B_96E4_A2FDE164B543_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$A$1:$AJ$8</definedName>
+    <definedName name="Z_DB171107_D76D_4C3B_96E4_A2FDE164B543_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$A$1:$AJ$8</definedName>
     <definedName name="Z_DB171107_D76D_4C3B_96E4_A2FDE164B543_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$A$1:$AJ$8</definedName>
-    <definedName name="Z_E1158B9D_4B13_4835_AEC4_31C2A81ECE79_.wvu.Cols" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$A:$A</definedName>
+    <definedName name="Z_E1158B9D_4B13_4835_AEC4_31C2A81ECE79_.wvu.Cols" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$A:$A</definedName>
     <definedName name="Z_E1158B9D_4B13_4835_AEC4_31C2A81ECE79_.wvu.Cols" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$A:$A</definedName>
-    <definedName name="Z_E1158B9D_4B13_4835_AEC4_31C2A81ECE79_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 &amp;Year and &amp;(Year+1)'!$B$3:$AI$8</definedName>
+    <definedName name="Z_E1158B9D_4B13_4835_AEC4_31C2A81ECE79_.wvu.FilterData" localSheetId="1" hidden="1">'Summary1 {Year} and {YearPlus1}'!$B$3:$AI$8</definedName>
     <definedName name="Z_E1158B9D_4B13_4835_AEC4_31C2A81ECE79_.wvu.FilterData" localSheetId="0" hidden="1">'Summary1{YearMinus1} and {Year}'!$B$3:$AI$8</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentManualCount="8"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="374">
   <si>
     <t>MAP</t>
   </si>
@@ -463,11 +463,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>TB/PP{Month} 
-vs. TB/PP{MonthMinus1}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>{YearMinus1}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -521,42 +516,6 @@
     <t>{Year} Total</t>
   </si>
   <si>
-    <t>Jan.{Year}()</t>
-  </si>
-  <si>
-    <t>Feb.{Year}()</t>
-  </si>
-  <si>
-    <t>Mar.{Year}()</t>
-  </si>
-  <si>
-    <t>Apr.{Year}()</t>
-  </si>
-  <si>
-    <t>May.{Year}()</t>
-  </si>
-  <si>
-    <t>Jun.{Year}()</t>
-  </si>
-  <si>
-    <t>Jul.{Year}()</t>
-  </si>
-  <si>
-    <t>Aug.{Year}()</t>
-  </si>
-  <si>
-    <t>Sep.{Year}()</t>
-  </si>
-  <si>
-    <t>Oct.{Year}()</t>
-  </si>
-  <si>
-    <t>Nov.{Year}()</t>
-  </si>
-  <si>
-    <t>Dec.{Year}()</t>
-  </si>
-  <si>
     <t>{Year} TB{Month}</t>
   </si>
   <si>
@@ -870,701 +829,525 @@
     <t>{PPMinus1Total}</t>
   </si>
   <si>
-    <t>{TB1Last0}</t>
-  </si>
-  <si>
-    <t>{TB1Last1}</t>
-  </si>
-  <si>
-    <t>{TB1Last2}</t>
-  </si>
-  <si>
-    <t>{TB1Last3}</t>
-  </si>
-  <si>
-    <t>{TB1Last4}</t>
-  </si>
-  <si>
-    <t>{TB1Last5}</t>
-  </si>
-  <si>
-    <t>{TB1Last6}</t>
-  </si>
-  <si>
-    <t>{TB1Last7}</t>
-  </si>
-  <si>
-    <t>{TB1Last8}</t>
-  </si>
-  <si>
-    <t>{TB1Last9}</t>
-  </si>
-  <si>
-    <t>{TB1Last10}</t>
-  </si>
-  <si>
-    <t>{TB1Last11}</t>
-  </si>
-  <si>
-    <t>{TB1LastHY0}</t>
-  </si>
-  <si>
-    <t>{TB1LastHY1}</t>
-  </si>
-  <si>
-    <t>{TB1LastTotal}</t>
-  </si>
-  <si>
-    <t>{TB12}</t>
-  </si>
-  <si>
-    <t>{TB13}</t>
-  </si>
-  <si>
-    <t>{TB14}</t>
-  </si>
-  <si>
-    <t>{TB15}</t>
-  </si>
-  <si>
-    <t>{TB16}</t>
-  </si>
-  <si>
-    <t>{TB17}</t>
-  </si>
-  <si>
-    <t>{TB18}</t>
-  </si>
-  <si>
-    <t>{TB19}</t>
-  </si>
-  <si>
-    <t>{TB110}</t>
-  </si>
-  <si>
-    <t>{TB111}</t>
-  </si>
-  <si>
-    <t>{TB1HY0}</t>
-  </si>
-  <si>
-    <t>{TB1HY1}</t>
-  </si>
-  <si>
-    <t>{TB1Total}</t>
-  </si>
-  <si>
-    <t>{STOCK12}</t>
-  </si>
-  <si>
-    <t>{STOCK13}</t>
-  </si>
-  <si>
-    <t>{STOCK14}</t>
-  </si>
-  <si>
-    <t>{STOCK15}</t>
-  </si>
-  <si>
-    <t>{STOCK16}</t>
-  </si>
-  <si>
-    <t>{STOCK17}</t>
-  </si>
-  <si>
-    <t>{STOCK18}</t>
-  </si>
-  <si>
-    <t>{STOCK19}</t>
-  </si>
-  <si>
-    <t>{STOCK110}</t>
-  </si>
-  <si>
-    <t>{STOCK111}</t>
-  </si>
-  <si>
-    <t>{PP1Last0}</t>
-  </si>
-  <si>
-    <t>{PP1Last1}</t>
-  </si>
-  <si>
-    <t>{PP1Last2}</t>
-  </si>
-  <si>
-    <t>{PP1Last3}</t>
-  </si>
-  <si>
-    <t>{PP1Last4}</t>
-  </si>
-  <si>
-    <t>{PP1Last5}</t>
-  </si>
-  <si>
-    <t>{PP1Last6}</t>
-  </si>
-  <si>
-    <t>{PP1Last7}</t>
-  </si>
-  <si>
-    <t>{PP1Last8}</t>
-  </si>
-  <si>
-    <t>{PP1Last9}</t>
-  </si>
-  <si>
-    <t>{PP1Last10}</t>
-  </si>
-  <si>
-    <t>{PP1Last11}</t>
-  </si>
-  <si>
-    <t>{PP1LastHY0}</t>
-  </si>
-  <si>
-    <t>{PP1LastHY1}</t>
-  </si>
-  <si>
-    <t>{PP1LastTotal}</t>
-  </si>
-  <si>
-    <t>{PP12}</t>
-  </si>
-  <si>
-    <t>{PP13}</t>
-  </si>
-  <si>
-    <t>{PP14}</t>
-  </si>
-  <si>
-    <t>{PP15}</t>
-  </si>
-  <si>
-    <t>{PP16}</t>
-  </si>
-  <si>
-    <t>{PP17}</t>
-  </si>
-  <si>
-    <t>{PP18}</t>
-  </si>
-  <si>
-    <t>{PP19}</t>
-  </si>
-  <si>
-    <t>{PP110}</t>
-  </si>
-  <si>
-    <t>{PP111}</t>
-  </si>
-  <si>
-    <t>{PP1HY0}</t>
-  </si>
-  <si>
-    <t>{PP1HY1}</t>
-  </si>
-  <si>
-    <t>{PP1Total}</t>
+    <t>{YearPlus1}Q1</t>
+  </si>
+  <si>
+    <t>{YearPlus1}Q2</t>
+  </si>
+  <si>
+    <t>{YearPlus1}Q3</t>
+  </si>
+  <si>
+    <t>{YearPlus1}Q4</t>
+  </si>
+  <si>
+    <t>{YearPlus1}1HY</t>
+  </si>
+  <si>
+    <t>{YearPlus1} 2HY</t>
+  </si>
+  <si>
+    <t>{YearPlus1}Total</t>
+  </si>
+  <si>
+    <t>Jan.{YearSimplePlus1}</t>
+  </si>
+  <si>
+    <t>Feb.{YearSimplePlus1}</t>
+  </si>
+  <si>
+    <t>Mar.{YearSimplePlus1}</t>
+  </si>
+  <si>
+    <t>Apr.{YearSimplePlus1}</t>
+  </si>
+  <si>
+    <t>May.{YearSimplePlus1}</t>
+  </si>
+  <si>
+    <t>Jun.{YearSimplePlus1}</t>
+  </si>
+  <si>
+    <t>Jul.{YearSimplePlus1}</t>
+  </si>
+  <si>
+    <t>Aug.{YearSimplePlus1}</t>
+  </si>
+  <si>
+    <t>Sep.{YearSimplePlus1}</t>
+  </si>
+  <si>
+    <t>Oct.{YearSimplePlus1}</t>
+  </si>
+  <si>
+    <t>Nov.{YearSimplePlus1}</t>
+  </si>
+  <si>
+    <t>Dec.{YearSimplePlus1}</t>
+  </si>
+  <si>
+    <t>{TBPlus1Last1}</t>
+  </si>
+  <si>
+    <t>{TBPlus1Last2}</t>
+  </si>
+  <si>
+    <t>{TBPlus1Last3}</t>
+  </si>
+  <si>
+    <t>{TBPlus1Last4}</t>
+  </si>
+  <si>
+    <t>{TBPlus1Last5}</t>
+  </si>
+  <si>
+    <t>{TBPlus1Last6}</t>
+  </si>
+  <si>
+    <t>{TBPlus1Last7}</t>
+  </si>
+  <si>
+    <t>{TBPlus1Last8}</t>
+  </si>
+  <si>
+    <t>{TBPlus1Last9}</t>
+  </si>
+  <si>
+    <t>{TBPlus1Last10}</t>
+  </si>
+  <si>
+    <t>{TBPlus1Last11}</t>
+  </si>
+  <si>
+    <t>{TBPlus1LastHY1}</t>
+  </si>
+  <si>
+    <t>{TBPlus1LastTotal}</t>
+  </si>
+  <si>
+    <t>{TBPlus10}</t>
+  </si>
+  <si>
+    <t>{TBPlus11}</t>
+  </si>
+  <si>
+    <t>{TBPlus12}</t>
+  </si>
+  <si>
+    <t>{TBPlus13}</t>
+  </si>
+  <si>
+    <t>{TBPlus14}</t>
+  </si>
+  <si>
+    <t>{TBPlus15}</t>
+  </si>
+  <si>
+    <t>{TBPlus16}</t>
+  </si>
+  <si>
+    <t>{TBPlus17}</t>
+  </si>
+  <si>
+    <t>{TBPlus18}</t>
+  </si>
+  <si>
+    <t>{TBPlus19}</t>
+  </si>
+  <si>
+    <t>{TBPlus110}</t>
+  </si>
+  <si>
+    <t>{TBPlus111}</t>
+  </si>
+  <si>
+    <t>{TBPlus1HY0}</t>
+  </si>
+  <si>
+    <t>{TBPlus1HY1}</t>
+  </si>
+  <si>
+    <t>{TBPlus1Total}</t>
+  </si>
+  <si>
+    <t>{STOCKPlus11}</t>
+  </si>
+  <si>
+    <t>{STOCKPlus12}</t>
+  </si>
+  <si>
+    <t>{STOCKPlus13}</t>
+  </si>
+  <si>
+    <t>{STOCKPlus14}</t>
+  </si>
+  <si>
+    <t>{STOCKPlus15}</t>
+  </si>
+  <si>
+    <t>{STOCKPlus16}</t>
+  </si>
+  <si>
+    <t>{STOCKPlus17}</t>
+  </si>
+  <si>
+    <t>{STOCKPlus18}</t>
+  </si>
+  <si>
+    <t>{STOCKPlus19}</t>
+  </si>
+  <si>
+    <t>{STOCKPlus110}</t>
+  </si>
+  <si>
+    <t>{STOCKPlus111}</t>
+  </si>
+  <si>
+    <t>{PPPlus1Last1}</t>
+  </si>
+  <si>
+    <t>{PPPlus1Last2}</t>
+  </si>
+  <si>
+    <t>{PPPlus1Last3}</t>
+  </si>
+  <si>
+    <t>{PPPlus1Last4}</t>
+  </si>
+  <si>
+    <t>{PPPlus1Last5}</t>
+  </si>
+  <si>
+    <t>{PPPlus1Last6}</t>
+  </si>
+  <si>
+    <t>{PPPlus1Last7}</t>
+  </si>
+  <si>
+    <t>{PPPlus1Last8}</t>
+  </si>
+  <si>
+    <t>{PPPlus1Last9}</t>
+  </si>
+  <si>
+    <t>{PPPlus1Last10}</t>
+  </si>
+  <si>
+    <t>{PPPlus1Last11}</t>
+  </si>
+  <si>
+    <t>{PPPlus1LastHY0}</t>
+  </si>
+  <si>
+    <t>{PPPlus1LastHY1}</t>
+  </si>
+  <si>
+    <t>{PPPlus1LastTotal}</t>
+  </si>
+  <si>
+    <t>{PPPlus10}</t>
+  </si>
+  <si>
+    <t>{PPPlus11}</t>
+  </si>
+  <si>
+    <t>{PPPlus12}</t>
+  </si>
+  <si>
+    <t>{PPPlus13}</t>
+  </si>
+  <si>
+    <t>{PPPlus14}</t>
+  </si>
+  <si>
+    <t>{PPPlus15}</t>
+  </si>
+  <si>
+    <t>{PPPlus16}</t>
+  </si>
+  <si>
+    <t>{PPPlus17}</t>
+  </si>
+  <si>
+    <t>{PPPlus18}</t>
+  </si>
+  <si>
+    <t>{PPPlus19}</t>
+  </si>
+  <si>
+    <t>{PPPlus110}</t>
+  </si>
+  <si>
+    <t>{PPPlus111}</t>
+  </si>
+  <si>
+    <t>{PPPlus1HY0}</t>
+  </si>
+  <si>
+    <t>{PPPlus1HY1}</t>
+  </si>
+  <si>
+    <t>{PPPlus1Total}</t>
+  </si>
+  <si>
+    <t>{PPLast0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feb.{YearSimple}</t>
+  </si>
+  <si>
+    <t>Mar.{YearSimple}</t>
+  </si>
+  <si>
+    <t>Apr.{YearSimple}</t>
+  </si>
+  <si>
+    <t>May.{YearSimple}</t>
+  </si>
+  <si>
+    <t>Jun.{YearSimple}</t>
+  </si>
+  <si>
+    <t>Jul.{YearSimple}</t>
+  </si>
+  <si>
+    <t>Aug.{YearSimple}</t>
+  </si>
+  <si>
+    <t>Sep.{YearSimple}</t>
+  </si>
+  <si>
+    <t>Oct.{YearSimple}</t>
+  </si>
+  <si>
+    <t>Nov.{YearSimple}</t>
+  </si>
+  <si>
+    <t>Dec.{YearSimple}</t>
+  </si>
+  <si>
+    <t>Jan.{YearSimple}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan.{YearMinus1Simple}</t>
+  </si>
+  <si>
+    <t>Feb.{YearMinus1Simple}</t>
+  </si>
+  <si>
+    <t>Mar.{YearMinus1Simple}</t>
+  </si>
+  <si>
+    <t>Apr.{YearMinus1Simple}</t>
+  </si>
+  <si>
+    <t>May.{YearMinus1Simple}</t>
+  </si>
+  <si>
+    <t>Jun.{YearMinus1Simple}</t>
+  </si>
+  <si>
+    <t>Jul.{YearMinus1Simple}</t>
+  </si>
+  <si>
+    <t>Aug.{YearMinus1Simple}</t>
+  </si>
+  <si>
+    <t>Sep.{YearMinus1Simple}</t>
+  </si>
+  <si>
+    <t>Oct.{YearMinus1Simple}</t>
+  </si>
+  <si>
+    <t>Nov.{YearMinus1Simple}</t>
+  </si>
+  <si>
+    <t>Dec.{YearMinus1Simple}</t>
+  </si>
+  <si>
+    <t>{TBMinus1Last0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TB0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TB1}</t>
+  </si>
+  <si>
+    <t>{TB2}</t>
+  </si>
+  <si>
+    <t>{TB3}</t>
+  </si>
+  <si>
+    <t>{TB4}</t>
+  </si>
+  <si>
+    <t>{TB5}</t>
+  </si>
+  <si>
+    <t>{TB6}</t>
+  </si>
+  <si>
+    <t>{TB7}</t>
+  </si>
+  <si>
+    <t>{TB8}</t>
+  </si>
+  <si>
+    <t>{TB9}</t>
+  </si>
+  <si>
+    <t>{TBLastHY0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TBLastHY1}</t>
+  </si>
+  <si>
+    <t>{TBLastTotal}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TBHY0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TBHY1}</t>
+  </si>
+  <si>
+    <t>{TBTotal}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TBDivideTBLast}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{STOCK0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{STOCK1}</t>
+  </si>
+  <si>
+    <t>{STOCK2}</t>
+  </si>
+  <si>
+    <t>{STOCK3}</t>
+  </si>
+  <si>
+    <t>{STOCK4}</t>
+  </si>
+  <si>
+    <t>{STOCK5}</t>
+  </si>
+  <si>
+    <t>{STOCK6}</t>
+  </si>
+  <si>
+    <t>{STOCK7}</t>
+  </si>
+  <si>
+    <t>{STOCK8}</t>
+  </si>
+  <si>
+    <t>{STOCK9}</t>
+  </si>
+  <si>
+    <t>{PP0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PP1}</t>
+  </si>
+  <si>
+    <t>{PP2}</t>
+  </si>
+  <si>
+    <t>{PP3}</t>
+  </si>
+  <si>
+    <t>{PP4}</t>
+  </si>
+  <si>
+    <t>{PP5}</t>
+  </si>
+  <si>
+    <t>{PP6}</t>
+  </si>
+  <si>
+    <t>{PP7}</t>
+  </si>
+  <si>
+    <t>{PP8}</t>
+  </si>
+  <si>
+    <t>{PP9}</t>
+  </si>
+  <si>
+    <t>{PPHY0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PPHY1}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PPTotal}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PPDividePPLast}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB/PP{Month}
+vs. TB/PP{MonthMinus1}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PPLastHY0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PPLastHY1}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PPLastTotal}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TBPlusDivideTB}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PPPlusDividePP}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{YearPlus1}</t>
-  </si>
-  <si>
-    <t>{YearPlus1}Q1</t>
-  </si>
-  <si>
-    <t>{YearPlus1}Q2</t>
-  </si>
-  <si>
-    <t>{YearPlus1}Q3</t>
-  </si>
-  <si>
-    <t>{YearPlus1}Q4</t>
-  </si>
-  <si>
-    <t>{YearPlus1}1HY</t>
-  </si>
-  <si>
-    <t>{YearPlus1} 2HY</t>
-  </si>
-  <si>
-    <t>{YearPlus1}Total</t>
-  </si>
-  <si>
-    <t>Jan.{YearSimplePlus1}</t>
-  </si>
-  <si>
-    <t>Feb.{YearSimplePlus1}</t>
-  </si>
-  <si>
-    <t>Mar.{YearSimplePlus1}</t>
-  </si>
-  <si>
-    <t>Apr.{YearSimplePlus1}</t>
-  </si>
-  <si>
-    <t>May.{YearSimplePlus1}</t>
-  </si>
-  <si>
-    <t>Jun.{YearSimplePlus1}</t>
-  </si>
-  <si>
-    <t>Jul.{YearSimplePlus1}</t>
-  </si>
-  <si>
-    <t>Aug.{YearSimplePlus1}</t>
-  </si>
-  <si>
-    <t>Sep.{YearSimplePlus1}</t>
-  </si>
-  <si>
-    <t>Oct.{YearSimplePlus1}</t>
-  </si>
-  <si>
-    <t>Nov.{YearSimplePlus1}</t>
-  </si>
-  <si>
-    <t>Dec.{YearSimplePlus1}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{TBPlus1Last0}</t>
-  </si>
-  <si>
-    <t>{TBPlus1Last1}</t>
-  </si>
-  <si>
-    <t>{TBPlus1Last2}</t>
-  </si>
-  <si>
-    <t>{TBPlus1Last3}</t>
-  </si>
-  <si>
-    <t>{TBPlus1Last4}</t>
-  </si>
-  <si>
-    <t>{TBPlus1Last5}</t>
-  </si>
-  <si>
-    <t>{TBPlus1Last6}</t>
-  </si>
-  <si>
-    <t>{TBPlus1Last7}</t>
-  </si>
-  <si>
-    <t>{TBPlus1Last8}</t>
-  </si>
-  <si>
-    <t>{TBPlus1Last9}</t>
-  </si>
-  <si>
-    <t>{TBPlus1Last10}</t>
-  </si>
-  <si>
-    <t>{TBPlus1Last11}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{STOCKPlus10}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PPPlus1Last0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{TBPlus1LastHY0}</t>
-  </si>
-  <si>
-    <t>{TBPlus1LastHY1}</t>
-  </si>
-  <si>
-    <t>{TBPlus1LastTotal}</t>
-  </si>
-  <si>
-    <t>{TBPlus10}</t>
-  </si>
-  <si>
-    <t>{TBPlus11}</t>
-  </si>
-  <si>
-    <t>{TBPlus12}</t>
-  </si>
-  <si>
-    <t>{TBPlus13}</t>
-  </si>
-  <si>
-    <t>{TBPlus14}</t>
-  </si>
-  <si>
-    <t>{TBPlus15}</t>
-  </si>
-  <si>
-    <t>{TBPlus16}</t>
-  </si>
-  <si>
-    <t>{TBPlus17}</t>
-  </si>
-  <si>
-    <t>{TBPlus18}</t>
-  </si>
-  <si>
-    <t>{TBPlus19}</t>
-  </si>
-  <si>
-    <t>{TBPlus110}</t>
-  </si>
-  <si>
-    <t>{TBPlus111}</t>
-  </si>
-  <si>
-    <t>{TBPlus1HY0}</t>
-  </si>
-  <si>
-    <t>{TBPlus1HY1}</t>
-  </si>
-  <si>
-    <t>{TBPlus1Total}</t>
-  </si>
-  <si>
-    <t>{STOCKPlus10}</t>
-  </si>
-  <si>
-    <t>{STOCKPlus11}</t>
-  </si>
-  <si>
-    <t>{STOCKPlus12}</t>
-  </si>
-  <si>
-    <t>{STOCKPlus13}</t>
-  </si>
-  <si>
-    <t>{STOCKPlus14}</t>
-  </si>
-  <si>
-    <t>{STOCKPlus15}</t>
-  </si>
-  <si>
-    <t>{STOCKPlus16}</t>
-  </si>
-  <si>
-    <t>{STOCKPlus17}</t>
-  </si>
-  <si>
-    <t>{STOCKPlus18}</t>
-  </si>
-  <si>
-    <t>{STOCKPlus19}</t>
-  </si>
-  <si>
-    <t>{STOCKPlus110}</t>
-  </si>
-  <si>
-    <t>{STOCKPlus111}</t>
-  </si>
-  <si>
-    <t>{PPPlus1Last0}</t>
-  </si>
-  <si>
-    <t>{PPPlus1Last1}</t>
-  </si>
-  <si>
-    <t>{PPPlus1Last2}</t>
-  </si>
-  <si>
-    <t>{PPPlus1Last3}</t>
-  </si>
-  <si>
-    <t>{PPPlus1Last4}</t>
-  </si>
-  <si>
-    <t>{PPPlus1Last5}</t>
-  </si>
-  <si>
-    <t>{PPPlus1Last6}</t>
-  </si>
-  <si>
-    <t>{PPPlus1Last7}</t>
-  </si>
-  <si>
-    <t>{PPPlus1Last8}</t>
-  </si>
-  <si>
-    <t>{PPPlus1Last9}</t>
-  </si>
-  <si>
-    <t>{PPPlus1Last10}</t>
-  </si>
-  <si>
-    <t>{PPPlus1Last11}</t>
-  </si>
-  <si>
-    <t>{PPPlus1LastHY0}</t>
-  </si>
-  <si>
-    <t>{PPPlus1LastHY1}</t>
-  </si>
-  <si>
-    <t>{PPPlus1LastTotal}</t>
-  </si>
-  <si>
-    <t>{PPPlus10}</t>
-  </si>
-  <si>
-    <t>{PPPlus11}</t>
-  </si>
-  <si>
-    <t>{PPPlus12}</t>
-  </si>
-  <si>
-    <t>{PPPlus13}</t>
-  </si>
-  <si>
-    <t>{PPPlus14}</t>
-  </si>
-  <si>
-    <t>{PPPlus15}</t>
-  </si>
-  <si>
-    <t>{PPPlus16}</t>
-  </si>
-  <si>
-    <t>{PPPlus17}</t>
-  </si>
-  <si>
-    <t>{PPPlus18}</t>
-  </si>
-  <si>
-    <t>{PPPlus19}</t>
-  </si>
-  <si>
-    <t>{PPPlus110}</t>
-  </si>
-  <si>
-    <t>{PPPlus111}</t>
-  </si>
-  <si>
-    <t>{PPPlus1HY0}</t>
-  </si>
-  <si>
-    <t>{PPPlus1HY1}</t>
-  </si>
-  <si>
-    <t>{PPPlus1Total}</t>
-  </si>
-  <si>
-    <t>{TBPlus-TBt}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PPPlus-PP}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PPLast0}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feb.{YearSimple}</t>
-  </si>
-  <si>
-    <t>Mar.{YearSimple}</t>
-  </si>
-  <si>
-    <t>Apr.{YearSimple}</t>
-  </si>
-  <si>
-    <t>May.{YearSimple}</t>
-  </si>
-  <si>
-    <t>Jun.{YearSimple}</t>
-  </si>
-  <si>
-    <t>Jul.{YearSimple}</t>
-  </si>
-  <si>
-    <t>Aug.{YearSimple}</t>
-  </si>
-  <si>
-    <t>Sep.{YearSimple}</t>
-  </si>
-  <si>
-    <t>Oct.{YearSimple}</t>
-  </si>
-  <si>
-    <t>Nov.{YearSimple}</t>
-  </si>
-  <si>
-    <t>Dec.{YearSimple}</t>
-  </si>
-  <si>
-    <t>Jan.{YearSimple}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jan.{YearMinus1Simple}</t>
-  </si>
-  <si>
-    <t>Feb.{YearMinus1Simple}</t>
-  </si>
-  <si>
-    <t>Mar.{YearMinus1Simple}</t>
-  </si>
-  <si>
-    <t>Apr.{YearMinus1Simple}</t>
-  </si>
-  <si>
-    <t>May.{YearMinus1Simple}</t>
-  </si>
-  <si>
-    <t>Jun.{YearMinus1Simple}</t>
-  </si>
-  <si>
-    <t>Jul.{YearMinus1Simple}</t>
-  </si>
-  <si>
-    <t>Aug.{YearMinus1Simple}</t>
-  </si>
-  <si>
-    <t>Sep.{YearMinus1Simple}</t>
-  </si>
-  <si>
-    <t>Oct.{YearMinus1Simple}</t>
-  </si>
-  <si>
-    <t>Nov.{YearMinus1Simple}</t>
-  </si>
-  <si>
-    <t>Dec.{YearMinus1Simple}</t>
-  </si>
-  <si>
-    <t>{TBMinus1Last0}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{TB0}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{TB1}</t>
-  </si>
-  <si>
-    <t>{TB2}</t>
-  </si>
-  <si>
-    <t>{TB3}</t>
-  </si>
-  <si>
-    <t>{TB4}</t>
-  </si>
-  <si>
-    <t>{TB5}</t>
-  </si>
-  <si>
-    <t>{TB6}</t>
-  </si>
-  <si>
-    <t>{TB7}</t>
-  </si>
-  <si>
-    <t>{TB8}</t>
-  </si>
-  <si>
-    <t>{TB9}</t>
-  </si>
-  <si>
-    <t>{TBLastHY0}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{TBLastHY1}</t>
-  </si>
-  <si>
-    <t>{TBLastTotal}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{TBHY0}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{TBHY1}</t>
-  </si>
-  <si>
-    <t>{TBTotal}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{TBDivideTBLast}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{STOCK0}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{STOCK1}</t>
-  </si>
-  <si>
-    <t>{STOCK2}</t>
-  </si>
-  <si>
-    <t>{STOCK3}</t>
-  </si>
-  <si>
-    <t>{STOCK4}</t>
-  </si>
-  <si>
-    <t>{STOCK5}</t>
-  </si>
-  <si>
-    <t>{STOCK6}</t>
-  </si>
-  <si>
-    <t>{STOCK7}</t>
-  </si>
-  <si>
-    <t>{STOCK8}</t>
-  </si>
-  <si>
-    <t>{STOCK9}</t>
-  </si>
-  <si>
-    <t>{PP0}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PP1}</t>
-  </si>
-  <si>
-    <t>{PP2}</t>
-  </si>
-  <si>
-    <t>{PP3}</t>
-  </si>
-  <si>
-    <t>{PP4}</t>
-  </si>
-  <si>
-    <t>{PP5}</t>
-  </si>
-  <si>
-    <t>{PP6}</t>
-  </si>
-  <si>
-    <t>{PP7}</t>
-  </si>
-  <si>
-    <t>{PP8}</t>
-  </si>
-  <si>
-    <t>{PP9}</t>
-  </si>
-  <si>
-    <t>{PPHY0}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PPHY1}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PPTotal}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PPDividePPLast}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1911,6 +1694,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1931,15 +1723,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1965,7 +1748,42 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent 2" xfId="2" xr:uid="{5FF66272-1FDB-4EF8-8395-B6B705B2A0B1}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2108,9 +1926,7 @@
     <sheetNames>
       <sheetName val="PP04"/>
       <sheetName val="Summary1"/>
-      <sheetName val="Summary1 (2)"/>
       <sheetName val="Summary2"/>
-      <sheetName val="Summary2 (2)"/>
       <sheetName val="Pivot GR"/>
       <sheetName val="GR"/>
       <sheetName val="Pivot STK"/>
@@ -2118,30 +1934,23 @@
       <sheetName val="Pivot Sold"/>
       <sheetName val="Sold"/>
       <sheetName val="PP03"/>
+      <sheetName val="Summary1 (2)"/>
+      <sheetName val="Summary2 (2)"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="7">
           <cell r="R7">
-            <v>6111</v>
+            <v>7.4081636125431727E-2</v>
           </cell>
-          <cell r="S7">
-            <v>3562</v>
-          </cell>
-          <cell r="T7">
-            <v>6425</v>
+          <cell r="S7" t="str">
+            <v>Skid Steer Loader/Xuzhou、Drilling/Sany、Wheel Loader/Yutong</v>
           </cell>
         </row>
         <row r="12">
           <cell r="R12">
-            <v>4747</v>
-          </cell>
-          <cell r="S12">
-            <v>3148</v>
-          </cell>
-          <cell r="T12">
-            <v>6110</v>
+            <v>7.5218615681043488E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2153,8 +1962,8 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2459,12 +2268,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1F0A3E-14C8-4E7E-A3DF-BFE97D2CF7C5}">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q23" sqref="Q23"/>
       <selection pane="topRight" activeCell="Q23" sqref="Q23"/>
       <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2481,477 +2290,471 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="74" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>111</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="28" t="s">
+      <c r="C1" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="30"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="33"/>
       <c r="AG1" s="2" t="s">
-        <v>89</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="33" t="s">
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="Q2" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="R2" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="S2" s="27"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="33" t="s">
+      <c r="V2" s="27"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="V2" s="34"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="33" t="s">
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="33" t="s">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="26" t="s">
+      <c r="AE2" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="AE2" s="26" t="s">
+      <c r="AF2" s="29" t="s">
         <v>104</v>
-      </c>
-      <c r="AF2" s="26" t="s">
-        <v>105</v>
       </c>
       <c r="AG2" s="3"/>
     </row>
     <row r="3" spans="1:33" ht="43.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>397</v>
+        <v>311</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>398</v>
+        <v>312</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>399</v>
+        <v>313</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>400</v>
+        <v>314</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>402</v>
+        <v>316</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>404</v>
+        <v>318</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>405</v>
+        <v>319</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
+        <v>320</v>
+      </c>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
       <c r="R3" s="4" t="s">
-        <v>394</v>
+        <v>308</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>383</v>
+        <v>297</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>384</v>
+        <v>298</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>385</v>
+        <v>299</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>386</v>
+        <v>300</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>389</v>
+        <v>303</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>390</v>
+        <v>304</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>392</v>
+        <v>306</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
+        <v>307</v>
+      </c>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="1:33" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC4" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="W4" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="X4" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y4" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA4" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB4" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC4" s="18" t="s">
-        <v>133</v>
-      </c>
       <c r="AD4" s="19" t="s">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="AE4" s="19" t="s">
-        <v>419</v>
+        <v>333</v>
       </c>
       <c r="AF4" s="19" t="s">
-        <v>420</v>
+        <v>334</v>
       </c>
       <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="P5" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="Q5" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>179</v>
-      </c>
       <c r="R5" s="18" t="s">
-        <v>408</v>
+        <v>322</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>409</v>
+        <v>323</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>411</v>
+        <v>325</v>
       </c>
       <c r="V5" s="18" t="s">
-        <v>412</v>
+        <v>326</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>413</v>
+        <v>327</v>
       </c>
       <c r="X5" s="18" t="s">
-        <v>414</v>
+        <v>328</v>
       </c>
       <c r="Y5" s="18" t="s">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="Z5" s="18" t="s">
-        <v>416</v>
+        <v>330</v>
       </c>
       <c r="AA5" s="18" t="s">
-        <v>417</v>
+        <v>331</v>
       </c>
       <c r="AB5" s="18" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="AC5" s="18" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AD5" s="19" t="s">
-        <v>421</v>
+        <v>335</v>
       </c>
       <c r="AE5" s="19" t="s">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="AF5" s="19" t="s">
-        <v>423</v>
+        <v>337</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>424</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20" t="s">
-        <v>425</v>
+        <v>339</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="T6" s="20" t="s">
-        <v>427</v>
+        <v>341</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>428</v>
+        <v>342</v>
       </c>
       <c r="V6" s="20" t="s">
-        <v>429</v>
+        <v>343</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>430</v>
+        <v>344</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>431</v>
+        <v>345</v>
       </c>
       <c r="Y6" s="20" t="s">
-        <v>432</v>
+        <v>346</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>433</v>
+        <v>347</v>
       </c>
       <c r="AA6" s="20" t="s">
-        <v>434</v>
+        <v>348</v>
       </c>
       <c r="AB6" s="20" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AC6" s="20" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AD6" s="20"/>
       <c r="AE6" s="20"/>
@@ -2959,202 +2762,199 @@
       <c r="AG6" s="3"/>
     </row>
     <row r="7" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="P7" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="Q7" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>206</v>
-      </c>
       <c r="R7" s="18" t="s">
-        <v>382</v>
+        <v>296</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="X7" s="18" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="Y7" s="18" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="AA7" s="18" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AB7" s="18" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AC7" s="18" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AD7" s="19" t="s">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="AE7" s="19" t="s">
-        <v>273</v>
+        <v>365</v>
       </c>
       <c r="AF7" s="19" t="s">
-        <v>274</v>
+        <v>366</v>
       </c>
       <c r="AG7" s="3"/>
     </row>
     <row r="8" spans="1:33" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="P8" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="Q8" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>221</v>
-      </c>
       <c r="R8" s="18" t="s">
-        <v>435</v>
+        <v>349</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>436</v>
+        <v>350</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>437</v>
+        <v>351</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>438</v>
+        <v>352</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>439</v>
+        <v>353</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>440</v>
+        <v>354</v>
       </c>
       <c r="X8" s="18" t="s">
-        <v>441</v>
+        <v>355</v>
       </c>
       <c r="Y8" s="18" t="s">
-        <v>442</v>
+        <v>356</v>
       </c>
       <c r="Z8" s="18" t="s">
-        <v>443</v>
+        <v>357</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>444</v>
+        <v>358</v>
       </c>
       <c r="AB8" s="18" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="AC8" s="18" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>445</v>
+        <v>359</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>446</v>
+        <v>360</v>
       </c>
       <c r="AF8" s="19" t="s">
-        <v>447</v>
+        <v>361</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>448</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -3171,16 +2971,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="C1:Q1"/>
     <mergeCell ref="R1:AF1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -3190,8 +2990,8 @@
     <mergeCell ref="X2:Z2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="B1:C1 AG1:XFD1 R1 A9:XFD19 A21:XFD1048576 A20:C20 E20:XFD20 B2:XFD8">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B1:C1 AG1:XFD1 R1 A9:XFD12 A21:XFD1048576 A20:C20 E20:XFD20 B2:XFD8 A14:XFD19 A13:B13 D13:XFD13">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3207,12 +3007,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A1F39F-0E71-4C5E-BEDA-8FD60CEADFE8}">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q23" sqref="Q23"/>
       <selection pane="topRight" activeCell="Q23" sqref="Q23"/>
       <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3228,195 +3028,195 @@
     <col min="33" max="33" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="33"/>
       <c r="AG1" s="2" t="s">
-        <v>89</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="33" t="s">
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="Q2" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="V2" s="34"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="AE2" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="AF2" s="26" t="s">
-        <v>295</v>
+      <c r="R2" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="S2" s="27"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="V2" s="27"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF2" s="29" t="s">
+        <v>215</v>
       </c>
       <c r="AG2" s="3"/>
     </row>
     <row r="3" spans="1:33" ht="14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
-        <v>106</v>
+        <v>308</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>109</v>
+        <v>299</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>112</v>
+        <v>302</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>116</v>
+        <v>306</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
+        <v>307</v>
+      </c>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
       <c r="R3" s="4" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
+        <v>227</v>
+      </c>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="1:33" ht="37.5" x14ac:dyDescent="0.25">
@@ -3424,197 +3224,197 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="I4" s="18" t="s">
+      <c r="O4" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="S4" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="T4" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="U4" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="V4" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="W4" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="X4" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="Y4" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="Z4" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="AA4" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="R4" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="W4" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="X4" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y4" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA4" s="18" t="s">
-        <v>317</v>
-      </c>
       <c r="AB4" s="18" t="s">
-        <v>318</v>
+        <v>237</v>
       </c>
       <c r="AC4" s="18" t="s">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="AD4" s="19" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="AE4" s="19" t="s">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="AF4" s="19" t="s">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="1:33" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>240</v>
+        <v>327</v>
       </c>
       <c r="I5" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="R5" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="S5" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="T5" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="U5" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="V5" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="W5" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="X5" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="Y5" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Z5" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="R5" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="T5" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="W5" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="X5" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y5" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z5" s="18" t="s">
-        <v>331</v>
-      </c>
       <c r="AA5" s="18" t="s">
-        <v>332</v>
+        <v>250</v>
       </c>
       <c r="AB5" s="18" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="AC5" s="18" t="s">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="AD5" s="19" t="s">
-        <v>335</v>
+        <v>253</v>
       </c>
       <c r="AE5" s="19" t="s">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="AF5" s="19" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -3625,79 +3425,79 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>136</v>
+        <v>339</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>137</v>
+        <v>340</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>251</v>
+        <v>342</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>254</v>
+        <v>345</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>256</v>
+        <v>347</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="T6" s="20" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="V6" s="20" t="s">
-        <v>342</v>
+        <v>259</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>343</v>
+        <v>260</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>344</v>
+        <v>261</v>
       </c>
       <c r="Y6" s="20" t="s">
-        <v>345</v>
+        <v>262</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>346</v>
+        <v>263</v>
       </c>
       <c r="AA6" s="20" t="s">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="AB6" s="20" t="s">
-        <v>348</v>
+        <v>265</v>
       </c>
       <c r="AC6" s="20" t="s">
-        <v>349</v>
+        <v>266</v>
       </c>
       <c r="AD6" s="20"/>
       <c r="AE6" s="20"/>
@@ -3710,197 +3510,197 @@
         <v>#REF!</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="J7" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="S7" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="T7" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="V7" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="W7" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="X7" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="Y7" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Z7" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="R7" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="S7" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="T7" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="V7" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="X7" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y7" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="Z7" s="18" t="s">
-        <v>358</v>
-      </c>
       <c r="AA7" s="18" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="AB7" s="18" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="AC7" s="18" t="s">
-        <v>361</v>
+        <v>277</v>
       </c>
       <c r="AD7" s="19" t="s">
-        <v>362</v>
+        <v>278</v>
       </c>
       <c r="AE7" s="19" t="s">
-        <v>363</v>
+        <v>279</v>
       </c>
       <c r="AF7" s="19" t="s">
-        <v>364</v>
+        <v>280</v>
       </c>
       <c r="AG7" s="3"/>
     </row>
     <row r="8" spans="1:33" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>149</v>
+        <v>349</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="K8" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="R8" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="S8" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="T8" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="U8" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="V8" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="W8" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="X8" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="R8" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="S8" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="T8" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="U8" s="18" t="s">
+      <c r="Y8" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB8" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC8" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG8" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="V8" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="W8" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="X8" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y8" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z8" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA8" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB8" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC8" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD8" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="AF8" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -3911,16 +3711,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="C1:Q1"/>
     <mergeCell ref="R1:AF1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -3931,32 +3731,67 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A9:XFD1048576 AH1:XFD8">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1 C2:Q8">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="C1 C2:Q2 O3:Q3">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1 R2:AF8">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AG4">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="AG2:AG4">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG5:AG8">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="AG6:AG7">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:N8">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:N6">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:N3">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:Q8">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG1">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG5">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3973,7 +3808,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4480,42 +4315,42 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B4:I5 B1:I2 A6:I6 A3:I3 B9:I9 B12:I12 J1:P6 A11:A13">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8 B11">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:I10">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:E23 A25:E28 A24:B24 D24:E24 A29:B29">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4631,7 +4466,7 @@
       </c>
       <c r="F3" s="12">
         <f>SUM([1]Summary1!R7:T7)</f>
-        <v>16098</v>
+        <v>7.4081636125431727E-2</v>
       </c>
       <c r="G3" s="12">
         <v>18181</v>
@@ -4644,7 +4479,7 @@
       </c>
       <c r="J3" s="13">
         <f t="shared" ref="J3:K3" si="0">F3/B3-1</f>
-        <v>-0.44239695185313477</v>
+        <v>-0.99999743395787577</v>
       </c>
       <c r="K3" s="13">
         <f t="shared" si="0"/>
@@ -4652,7 +4487,7 @@
       </c>
       <c r="L3" s="13">
         <f>SUM(F3:G3)/SUM(B3:C3)-1</f>
-        <v>-0.43311448841555178</v>
+        <v>-0.69933231768945858</v>
       </c>
       <c r="M3" s="13">
         <f t="shared" ref="M3:N3" si="1">H3/D3-1</f>
@@ -4668,7 +4503,7 @@
       </c>
       <c r="P3" s="13">
         <f>SUM(F3:I3)/SUM(B3:E3)-1</f>
-        <v>-0.32433907738413781</v>
+        <v>-0.49663840220875388</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -4761,7 +4596,7 @@
       </c>
       <c r="F6" s="12">
         <f>SUM([1]Summary1!R12:T12)</f>
-        <v>14005</v>
+        <v>7.5218615681043488E-2</v>
       </c>
       <c r="G6" s="12">
         <v>17112</v>
@@ -4774,7 +4609,7 @@
       </c>
       <c r="J6" s="13">
         <f t="shared" ref="J6:K6" si="2">F6/B6-1</f>
-        <v>-0.52846705498131374</v>
+        <v>-0.99999746747194773</v>
       </c>
       <c r="K6" s="13">
         <f t="shared" si="2"/>
@@ -4782,7 +4617,7 @@
       </c>
       <c r="L6" s="13">
         <f>SUM(F6:G6)/SUM(B6:C6)-1</f>
-        <v>-0.4573625837053571</v>
+        <v>-0.70158909007715398</v>
       </c>
       <c r="M6" s="13">
         <f t="shared" ref="M6:N6" si="3">H6/D6-1</f>
@@ -4798,7 +4633,7 @@
       </c>
       <c r="P6" s="13">
         <f>SUM(F6:I6)/SUM(B6:E6)-1</f>
-        <v>-0.34481084681470775</v>
+        <v>-0.50291744974976371</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4866,19 +4701,19 @@
       </c>
       <c r="F10" s="17">
         <f>F3/SUM($F3:$I3)</f>
-        <v>0.25500974226559159</v>
+        <v>1.5752305902692453E-6</v>
       </c>
       <c r="G10" s="17">
         <f>G3/SUM($F3:$I3)</f>
-        <v>0.28800671661887939</v>
+        <v>0.38659064323571923</v>
       </c>
       <c r="H10" s="17">
         <f>H3/SUM($F3:$I3)</f>
-        <v>0.23607964896161707</v>
+        <v>0.31688907959638762</v>
       </c>
       <c r="I10" s="17">
         <f>I3/SUM($F3:$I3)</f>
-        <v>0.22090389215391196</v>
+        <v>0.29651870193730295</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -4945,19 +4780,19 @@
       </c>
       <c r="F13" s="17">
         <f>F6/SUM($F6:$I6)</f>
-        <v>0.24131573506099663</v>
+        <v>1.7083074920969038E-6</v>
       </c>
       <c r="G13" s="17">
         <f>G6/SUM($F6:$I6)</f>
-        <v>0.29485147150044799</v>
+        <v>0.38863461578074981</v>
       </c>
       <c r="H13" s="17">
         <f>H6/SUM($F6:$I6)</f>
-        <v>0.23394100213660488</v>
+        <v>0.30835040781061479</v>
       </c>
       <c r="I13" s="17">
         <f>I6/SUM($F6:$I6)</f>
-        <v>0.2298917913019505</v>
+        <v>0.30301326810114326</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4980,47 +4815,47 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B4:I4 B1:I1 A6:I6 A3:I3 B9:I9 B12:I12 J1:P6 A11:A13 F2:I2 F5:I5">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8 B11">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:I10">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E2">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
